--- a/ComparisonAgent_Output/DI_Azure_Synapse_To_PySpark_Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI_Azure_Synapse_To_PySpark_Doc&Analyze_comparison/aava_enterprise_comparison_agent.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18 23:44:55</t>
+          <t>2026-01-18 23:49:21</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="44" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,7 +532,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unmatched Components</t>
+          <t>Unmatched Artifacts</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,19 +542,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No valid matches between versions</t>
+          <t>No comparable files detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manual review needed</t>
+          <t>Manual reconciliation needed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Migration Equivalence</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,19 +564,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cannot be established</t>
+          <t>Cannot assess equivalence</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rebuild or refactor</t>
+          <t>Full manual review required</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -586,19 +586,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not assessable</t>
+          <t>No assurance of continuity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Require new tests</t>
+          <t>Delay migration</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Performance Profile</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,78 +608,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Not comparable</t>
+          <t>Regulatory risk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benchmark required</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Documentation Completeness</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Not comparable</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>New documentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Prerequisites Met</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Not Ready</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No comparable artifacts</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Provide equivalents</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Overall Readiness Status</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NOT READY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Migration not possible with current inputs</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Address gaps</t>
+          <t>Validate manually</t>
         </is>
       </c>
     </row>
@@ -704,7 +638,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -732,12 +666,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>NOT READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No matched pairs</t>
+          <t>No matches detected</t>
         </is>
       </c>
     </row>
@@ -749,12 +683,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>NOT READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No comparison possible</t>
+          <t>No comparable tests</t>
         </is>
       </c>
     </row>
@@ -766,12 +700,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>NOT READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No comparison possible</t>
+          <t>Cannot be compared</t>
         </is>
       </c>
     </row>
@@ -783,12 +717,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>NOT READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No comparison possible</t>
+          <t>No validated documentation</t>
         </is>
       </c>
     </row>
@@ -800,12 +734,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>NOT READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No comparable artifacts</t>
+          <t>Manual review required</t>
         </is>
       </c>
     </row>
@@ -881,7 +815,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No valid one-to-one matches; all components not comparable</t>
+          <t>No valid matched components; migration risk is high</t>
         </is>
       </c>
     </row>
@@ -929,7 +863,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Provide comparable artifacts</t>
+          <t>Manual reconciliation and review</t>
         </is>
       </c>
     </row>
@@ -952,7 +886,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
     <col width="42" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
@@ -1007,17 +941,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation - Sales Fact ETL</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_synapse_documentation.txt</t>
+          <t>di_azure_synapse_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1049,17 +983,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer - Sales Fact ETL</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_analyzer.txt</t>
+          <t>di_synapse_documentation.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1091,7 +1025,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plan - Sales Fact ETL</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1311,8 +1245,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1374,12 +1308,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 (per set)</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>All gates failed; no intent/signature/semantic match</t>
+          <t>All gates failed for all pairs</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1338,7 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1432,12 +1366,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed: intent mismatch</t>
+          <t>No match in AAVA 2.0 - Gate 1 intent mismatch</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1383,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed: intent mismatch</t>
+          <t>No match in AAVA 2.0 - Gate 1 intent mismatch</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed: intent mismatch</t>
+          <t>No match in AAVA 2.0 - Gate 1 intent mismatch</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed: intent mismatch</t>
+          <t>No match in AAVA 1.0 - Gate 1 intent mismatch</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed: intent mismatch</t>
+          <t>No match in AAVA 1.0 - Gate 1 intent mismatch</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1456,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed: intent mismatch</t>
+          <t>No match in AAVA 1.0 - Gate 1 intent mismatch</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1624,7 @@
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1729,7 +1663,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1751,7 +1685,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1773,7 +1707,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1795,7 +1729,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1817,7 +1751,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1839,7 +1773,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1861,7 +1795,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1883,7 +1817,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1905,7 +1839,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1927,7 +1861,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2115,7 +2049,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Not Applicable</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2076,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Not Applicable</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2103,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Not Applicable</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2130,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Not Applicable</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2246,7 +2180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
     <col width="42" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
@@ -2301,17 +2235,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation - Sales Fact ETL</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_synapse_documentation.txt</t>
+          <t>No match found</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2343,17 +2277,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer - Sales Fact ETL</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_Bigquery_Analyzer.txt</t>
+          <t>DI_Azure_Synapse_To_Bigquery_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_analyzer.txt</t>
+          <t>No match found</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2385,7 +2319,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plan - Sales Fact ETL</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2395,30 +2329,156 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Analyzer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>di_azure_synapse_to_pyspark_analyzer.txt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>di_synapse_documentation.txt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Comparable</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No match found</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>di_azure_synapse_to_pyspark_plan.txt</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Not Comparable</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>High</t>
         </is>
